--- a/SeleniumTestAutomationRunner_STAR/DB.xlsx
+++ b/SeleniumTestAutomationRunner_STAR/DB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="125">
   <si>
     <t>TCID</t>
   </si>
@@ -136,9 +136,6 @@
     <t>January</t>
   </si>
   <si>
-    <t>Jan 31</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>//div[contains(@aria-label,"$Date")]</t>
   </si>
   <si>
-    <t>Jan 21</t>
-  </si>
-  <si>
     <t>//div[@data-cy="returnArea"]</t>
   </si>
   <si>
@@ -316,18 +310,12 @@
     <t>BookPage.doNothing</t>
   </si>
   <si>
-    <t>TCID_3</t>
-  </si>
-  <si>
     <t>Smoke:Search</t>
   </si>
   <si>
     <t>Smoke</t>
   </si>
   <si>
-    <t>TCID_4</t>
-  </si>
-  <si>
     <t>Action5</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>Jan 28</t>
   </si>
   <si>
-    <t>Cochin</t>
-  </si>
-  <si>
     <t>Mangalore</t>
   </si>
   <si>
@@ -362,6 +347,51 @@
   </si>
   <si>
     <t>Action7</t>
+  </si>
+  <si>
+    <t>SMOKE_3</t>
+  </si>
+  <si>
+    <t>SMOKE_4</t>
+  </si>
+  <si>
+    <t>PopupClose</t>
+  </si>
+  <si>
+    <t>//i[contains(@class,"we_close")]</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>iFrame</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@name,"notification-frame")]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Mar 21</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Mar 31</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>closeBrowsers</t>
+  </si>
+  <si>
+    <t>Ernakulam</t>
   </si>
 </sst>
 </file>
@@ -485,7 +515,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -527,6 +557,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -828,6 +859,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -853,59 +885,59 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -915,19 +947,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -936,26 +968,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -966,7 +996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -975,7 +1005,7 @@
     <col min="1" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1010,7 +1040,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -1027,10 +1057,10 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1045,10 +1075,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>15</v>
@@ -1065,10 +1095,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>15</v>
@@ -1085,10 +1115,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1103,10 +1133,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
@@ -1123,10 +1153,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
@@ -1146,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -1164,10 +1194,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1181,10 +1211,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -1202,10 +1232,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1219,10 +1249,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1240,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>36</v>
@@ -1260,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>36</v>
@@ -1280,7 +1310,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -1296,7 +1326,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -1314,9 +1344,25 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1352,13 +1398,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1366,22 +1412,22 @@
         <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1389,22 +1435,22 @@
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1412,22 +1458,22 @@
         <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1435,22 +1481,22 @@
         <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1458,22 +1504,22 @@
         <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1490,13 +1536,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1504,22 +1550,22 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1533,16 +1579,16 @@
         <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1559,13 +1605,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1573,7 +1619,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
@@ -1582,13 +1628,13 @@
         <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1602,16 +1648,16 @@
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1628,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1651,13 +1697,59 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>37</v>
@@ -1702,16 +1794,16 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>36</v>
@@ -1719,7 +1811,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -1734,24 +1826,24 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
@@ -1760,30 +1852,30 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
@@ -1792,30 +1884,30 @@
         <v>14</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="19" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B5" s="20">
         <v>1</v>
@@ -1824,30 +1916,30 @@
         <v>14</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B6" s="24">
         <v>1</v>
@@ -1862,24 +1954,24 @@
         <v>18</v>
       </c>
       <c r="F6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="I6" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B7" s="24">
         <v>2</v>
@@ -1888,30 +1980,30 @@
         <v>14</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G7" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="I7" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B8" s="24">
         <v>3</v>
@@ -1920,25 +2012,25 @@
         <v>14</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>68</v>
-      </c>
       <c r="J8" s="26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumTestAutomationRunner_STAR/DB.xlsx
+++ b/SeleniumTestAutomationRunner_STAR/DB.xlsx
@@ -355,9 +355,6 @@
     <t>SMOKE_4</t>
   </si>
   <si>
-    <t>PopupClose</t>
-  </si>
-  <si>
     <t>//i[contains(@class,"we_close")]</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>Ernakulam</t>
+  </si>
+  <si>
+    <t>AlertClose</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1708,16 +1708,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>74</v>
@@ -1726,21 +1726,21 @@
         <v>89</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>74</v>
@@ -1749,7 +1749,7 @@
         <v>89</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1858,16 +1858,16 @@
         <v>101</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>42</v>
@@ -1980,7 +1980,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>18</v>

--- a/SeleniumTestAutomationRunner_STAR/DB.xlsx
+++ b/SeleniumTestAutomationRunner_STAR/DB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="129">
   <si>
     <t>TCID</t>
   </si>
@@ -392,6 +392,18 @@
   </si>
   <si>
     <t>AlertClose</t>
+  </si>
+  <si>
+    <t>SearchPage.validateSearchPageElements</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>FieldsToValidate</t>
+  </si>
+  <si>
+    <t>FromLabel|ToLabel|DepartureLabel|SearchBtn</t>
   </si>
 </sst>
 </file>
@@ -422,18 +434,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -443,43 +449,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,49 +503,33 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -861,7 +833,7 @@
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -869,125 +841,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1009,360 +967,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1385,256 +1343,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="G7" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="G8" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="G9" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="G10" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>60</v>
+      <c r="G11" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1656,7 +1614,7 @@
       <c r="F12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1679,76 +1637,76 @@
       <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1759,7 +1717,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1775,263 +1733,276 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="19" t="s">
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="23" t="s">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="23" t="s">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="23" t="s">
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="K8" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
